--- a/results_method1_and_2/method_entropies/KLd_JSd_interval.xlsx
+++ b/results_method1_and_2/method_entropies/KLd_JSd_interval.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/interval/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{903A85AF-B0CF-4C5A-8FBF-DE6A29603C11}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8847AEC-59D7-4BEC-9008-75065B7EA9EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
   <si>
     <t>KLd: karykis -- pro-karykis</t>
   </si>
@@ -95,6 +95,9 @@
   <si>
     <t>echos_pld</t>
   </si>
+  <si>
+    <t>scale</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,35 +149,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -182,7 +169,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -200,7 +187,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -299,6 +286,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.2744397732690803E-2"/>
+                  <c:y val="-2.4533863625412516E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8527806065951577E-2"/>
+                  <c:y val="2.906746698189689E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7622990693432419E-2"/>
+                  <c:y val="-6.6667534229760484E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -425,6 +478,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0296469732621148E-2"/>
+                  <c:y val="5.586813228555159E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8527806065951577E-2"/>
+                  <c:y val="6.926846493737894E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8527806065951667E-2"/>
+                  <c:y val="6.4801687386769821E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -551,6 +670,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5200875047509625E-2"/>
+                  <c:y val="-1.1133530973585166E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1158374121495048E-2"/>
+                  <c:y val="-6.9201639131503734E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0253558748976063E-2"/>
+                  <c:y val="-5.5801306479676335E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5AF7-4C44-9341-B29731047F85}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -851,7 +1036,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -950,6 +1135,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5200893461591135E-2"/>
+                  <c:y val="-2.4533863625412516E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12467862694110102"/>
+                  <c:y val="-5.5801306479676335E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0582181367751361E-3"/>
+                  <c:y val="6.7335792288513033E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1076,6 +1327,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.2918504511795374E-2"/>
+                  <c:y val="5.1401354734942478E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6071337662408E-2"/>
+                  <c:y val="4.246779963372424E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8527815452367243E-2"/>
+                  <c:y val="4.2467799633724157E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1202,6 +1519,72 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5200893461591135E-2"/>
+                  <c:y val="-6.4734861580894573E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3788948712612212E-2"/>
+                  <c:y val="-6.0268084030285454E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.311215233102514E-3"/>
+                  <c:y val="-4.2400973827848985E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-80B1-405C-ACD2-4BC4D1EBE7A3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1502,7 +1885,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1605,8 +1988,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.361238468524824E-2"/>
-                  <c:y val="-4.6867751378458104E-2"/>
+                  <c:x val="-9.268500409215133E-2"/>
+                  <c:y val="-1.5600308524194284E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1627,8 +2010,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10600972107359753"/>
-                  <c:y val="-2.9000641176021635E-2"/>
+                  <c:x val="-6.3226153891950965E-2"/>
+                  <c:y val="-4.2400973827849069E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1649,8 +2032,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.5484175532226255E-2"/>
-                  <c:y val="6.7335792288512209E-3"/>
+                  <c:x val="2.7605300892000067E-2"/>
+                  <c:y val="2.2668016782421857E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1748,13 +2131,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.221</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22800000000000001</c:v>
+                  <c:v>0.22900000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,7 +2180,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.3940908242530186E-2"/>
+                  <c:x val="-5.3406537158550878E-2"/>
                   <c:y val="6.0334909836160709E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1819,8 +2202,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6502506409520528E-2"/>
-                  <c:y val="6.0334909836160792E-2"/>
+                  <c:x val="-4.6041824608500773E-2"/>
+                  <c:y val="6.4801687386769821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1841,8 +2224,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.914623546583156E-2"/>
-                  <c:y val="6.4801687386769669E-2"/>
+                  <c:x val="6.0135487514975878E-4"/>
+                  <c:y val="1.5667134330069537E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1940,13 +2323,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.183</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.18099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17699999999999999</c:v>
+                  <c:v>0.17899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1986,11 +2369,11 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10105078651825786"/>
-                  <c:y val="-5.5801306479676335E-2"/>
+                  <c:x val="-0.10495952500890145"/>
+                  <c:y val="-3.3467418726630754E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2003,7 +2386,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-91D0-4663-A3E8-13A6DE6741F5}"/>
+                  <c16:uniqueId val="{00000001-D4F7-47CE-B27E-50CF23BE5275}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2011,8 +2394,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.1137360925313761E-2"/>
-                  <c:y val="-5.1334528929067223E-2"/>
+                  <c:x val="1.5330779975249747E-2"/>
+                  <c:y val="-5.5801306479676419E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2110,13 +2493,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.29099999999999998</c:v>
+                  <c:v>0.27800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26900000000000002</c:v>
+                  <c:v>0.27100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24</c:v>
+                  <c:v>0.24099999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2329,7 +2712,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2432,8 +2815,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.6069044537648146E-2"/>
-                  <c:y val="3.3534244532505926E-2"/>
+                  <c:x val="-9.0629032339483981E-2"/>
+                  <c:y val="1.120035677946042E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2454,8 +2837,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.1021940353484668E-2"/>
-                  <c:y val="2.906746698189689E-2"/>
+                  <c:x val="-8.8163274340234993E-2"/>
+                  <c:y val="2.4600689431287771E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2476,8 +2859,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.8698156684274147E-3"/>
-                  <c:y val="2.2668016782421857E-3"/>
+                  <c:x val="-1.8617443665195884E-3"/>
+                  <c:y val="6.7335792288513033E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2624,8 +3007,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.1492982195119522E-2"/>
-                  <c:y val="5.1401354734942395E-2"/>
+                  <c:x val="-5.1176904351499825E-2"/>
+                  <c:y val="6.4801687386769821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2646,8 +3029,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3969430103037874E-2"/>
-                  <c:y val="5.586813228555159E-2"/>
+                  <c:x val="-4.8711146352250809E-2"/>
+                  <c:y val="7.8202020038597178E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2668,8 +3051,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3969430103037783E-2"/>
-                  <c:y val="5.1401354734942478E-2"/>
+                  <c:x val="-4.8711146352250809E-2"/>
+                  <c:y val="4.6934577184333276E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2812,6 +3195,50 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4053566359760692E-2"/>
+                  <c:y val="-4.2400973827848985E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-711F-405E-A9BC-B7039E4260C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7601838717681584E-3"/>
+                  <c:y val="-3.3467418726630754E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-711F-405E-A9BC-B7039E4260C0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2896,10 +3323,10 @@
                   <c:v>0.33200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.29499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.249</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,7 +3539,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3215,8 +3642,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.6061825605132712E-2"/>
-                  <c:y val="5.1401354734942478E-2"/>
+                  <c:x val="-8.8104019976678383E-2"/>
+                  <c:y val="4.246779963372424E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3237,8 +3664,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.8642947409351609E-3"/>
-                  <c:y val="-5.5801306479676419E-2"/>
+                  <c:x val="-6.8391213831560285E-2"/>
+                  <c:y val="-6.9201639131503734E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3259,8 +3686,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.2950520073879654E-2"/>
-                  <c:y val="-6.6667534229761308E-3"/>
+                  <c:x val="1.538821228519153E-2"/>
+                  <c:y val="6.7335792288513033E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3407,8 +3834,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.8284047827354911E-2"/>
-                  <c:y val="-2.1999758723669311E-3"/>
+                  <c:x val="-9.7960423049237397E-2"/>
+                  <c:y val="2.2668016782421449E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3429,8 +3856,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.1370467580441335E-2"/>
-                  <c:y val="5.1401354734942478E-2"/>
+                  <c:x val="-4.8678407686442209E-2"/>
+                  <c:y val="6.4801687386769821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3451,8 +3878,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.9148245358218931E-2"/>
-                  <c:y val="6.0334909836160709E-2"/>
+                  <c:x val="-5.8534810759001243E-2"/>
+                  <c:y val="6.9268464937378857E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3599,8 +4026,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.3469233012540117E-2"/>
-                  <c:y val="-5.5801306479676377E-2"/>
+                  <c:x val="-8.8104019976678383E-2"/>
+                  <c:y val="-3.3467418726630796E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3621,8 +4048,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.0876640419947507E-2"/>
-                  <c:y val="-8.2601971783331035E-2"/>
+                  <c:x val="3.7565119198449362E-2"/>
+                  <c:y val="-0.10046908198576751"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3643,8 +4070,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.7036064936327397E-3"/>
-                  <c:y val="-5.1334528929067223E-2"/>
+                  <c:x val="1.8542261268410423E-2"/>
+                  <c:y val="-4.6867751378458104E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -3742,10 +4169,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.35399999999999998</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28399999999999997</c:v>
+                  <c:v>0.28499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.24</c:v>
@@ -3961,7 +4388,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4064,8 +4491,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.5939138231311343E-2"/>
-                  <c:y val="6.7335792288513033E-3"/>
+                  <c:x val="-9.0568103172461209E-2"/>
+                  <c:y val="1.5667134330069537E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4086,8 +4513,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.0993717953335875E-2"/>
-                  <c:y val="-5.1334528929067223E-2"/>
+                  <c:x val="-5.1142498531726067E-2"/>
+                  <c:y val="2.9067466981896807E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4108,8 +4535,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.0571663325911958E-4"/>
-                  <c:y val="2.2668016782421857E-3"/>
+                  <c:x val="1.0460008719422421E-2"/>
+                  <c:y val="-5.5801306479676335E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4207,13 +4634,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.223</c:v>
+                  <c:v>0.224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23499999999999999</c:v>
+                  <c:v>0.23599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.214</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,7 +4683,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6375776007507717E-2"/>
+                  <c:x val="-5.3606598821772017E-2"/>
                   <c:y val="4.6934577184333276E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -4278,8 +4705,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3903065868519969E-2"/>
-                  <c:y val="6.4801687386769904E-2"/>
+                  <c:x val="-4.6214297951634176E-2"/>
+                  <c:y val="5.1401354734942395E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4300,8 +4727,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6375776007507787E-2"/>
-                  <c:y val="5.5868132285551514E-2"/>
+                  <c:x val="-4.8678398241680208E-2"/>
+                  <c:y val="6.0334909836160792E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4402,7 +4829,7 @@
                   <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.185</c:v>
+                  <c:v>0.184</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.17299999999999999</c:v>
@@ -4448,8 +4875,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.3357268648274525E-2"/>
-                  <c:y val="-2.9000641176021635E-2"/>
+                  <c:x val="-8.8104002882415294E-2"/>
+                  <c:y val="-4.2400973827848985E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4470,8 +4897,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.8302688926249965E-2"/>
-                  <c:y val="-9.1535526884549273E-2"/>
+                  <c:x val="-2.1573295051174706E-2"/>
+                  <c:y val="-5.5801306479676335E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4492,8 +4919,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.0784267722468468E-3"/>
-                  <c:y val="-4.6867751378458104E-2"/>
+                  <c:x val="1.7852309589560262E-2"/>
+                  <c:y val="-2.1999758723669311E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4594,7 +5021,7 @@
                   <c:v>0.245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.247</c:v>
+                  <c:v>0.248</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.216</c:v>
@@ -4810,7 +5237,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4913,8 +5340,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10803713424710802"/>
-                  <c:y val="1.120035677946042E-2"/>
+                  <c:x val="-9.3008509261493552E-2"/>
+                  <c:y val="-2.1999758723669311E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4935,8 +5362,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.6185282395256241E-2"/>
-                  <c:y val="5.1401354734942478E-2"/>
+                  <c:x val="-4.3739055004108462E-2"/>
+                  <c:y val="6.926846493737894E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4957,8 +5384,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3839603382910472E-2"/>
-                  <c:y val="6.0334909836160709E-2"/>
+                  <c:x val="-2.8958218726892821E-2"/>
+                  <c:y val="4.6934577184333276E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5056,13 +5483,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.254</c:v>
+                  <c:v>0.26200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26300000000000001</c:v>
+                  <c:v>0.26700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24199999999999999</c:v>
+                  <c:v>0.24399999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5105,8 +5532,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.8407504617478377E-2"/>
-                  <c:y val="6.926846493737894E-2"/>
+                  <c:x val="-4.8666000429846895E-2"/>
+                  <c:y val="7.8202020038597178E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5127,8 +5554,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.0481384271410427E-2"/>
-                  <c:y val="-6.9201639131503692E-2"/>
+                  <c:x val="-6.7869643110694882E-3"/>
+                  <c:y val="-8.2601971783331077E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5149,8 +5576,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.0484106153397491E-4"/>
-                  <c:y val="1.1200356779460338E-2"/>
+                  <c:x val="1.5384290104753843E-2"/>
+                  <c:y val="-2.1999758723669311E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5248,13 +5675,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.249</c:v>
+                  <c:v>0.254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27700000000000002</c:v>
+                  <c:v>0.28399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.255</c:v>
+                  <c:v>0.26100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5297,8 +5724,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1000097210070959E-2"/>
-                  <c:y val="-4.6867751378458104E-2"/>
+                  <c:x val="-0.10039892740010133"/>
+                  <c:y val="-2.0067086074803443E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5319,8 +5746,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.6185282395256241E-2"/>
-                  <c:y val="-9.1535526884549315E-2"/>
+                  <c:x val="-6.8373782132801056E-2"/>
+                  <c:y val="-9.6002304435158392E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5334,6 +5761,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-128A-4046-A6FA-AE5A4DC3003D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5303992532766263E-3"/>
+                  <c:y val="-4.6867751378458146E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9C0C-4857-88E9-221B1D449D01}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5418,13 +5867,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.307</c:v>
+                  <c:v>0.314</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.311</c:v>
+                  <c:v>0.317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28399999999999997</c:v>
+                  <c:v>0.29099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5637,7 +6086,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5740,8 +6189,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10333438105358046"/>
-                  <c:y val="6.7335792288513033E-3"/>
+                  <c:x val="-9.3032221512957869E-2"/>
+                  <c:y val="1.120035677946042E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5762,8 +6211,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4141540055228432E-2"/>
-                  <c:y val="-5.1334528929067223E-2"/>
+                  <c:x val="-6.8391213831560285E-2"/>
+                  <c:y val="1.5667134330069537E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5784,7 +6233,7 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.7234889590876614E-3"/>
+                  <c:x val="3.0677084444927349E-3"/>
                   <c:y val="2.2668016782421857E-3"/>
                 </c:manualLayout>
               </c:layout>
@@ -5883,13 +6332,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.23699999999999999</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21299999999999999</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19</c:v>
+                  <c:v>0.192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5932,8 +6381,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.6313631710808949E-2"/>
-                  <c:y val="6.0334909836160709E-2"/>
+                  <c:x val="-5.1142508454581945E-2"/>
+                  <c:y val="5.5868132285551514E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -5954,7 +6403,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6515421461220936E-2"/>
+                  <c:x val="-4.6214306918302445E-2"/>
                   <c:y val="5.5868132285551514E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -5976,8 +6425,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0772036664882452E-2"/>
-                  <c:y val="5.586813228555159E-2"/>
+                  <c:x val="-4.3060257935083647E-2"/>
+                  <c:y val="6.4801687386769821E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6075,7 +6524,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.14899999999999999</c:v>
+                  <c:v>0.14799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.17599999999999999</c:v>
@@ -6124,7 +6573,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.10580915733477897"/>
+                  <c:x val="-9.0568120744818112E-2"/>
                   <c:y val="-3.3467418726630754E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -6146,8 +6595,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.6111841960396956E-2"/>
-                  <c:y val="-0.10046908198576751"/>
+                  <c:x val="3.7576566595718675E-3"/>
+                  <c:y val="-9.1535526884549273E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -6161,6 +6610,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-A2D3-4095-833B-2AAC804BC205}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9959099807722523E-3"/>
+                  <c:y val="-3.7934196277239866E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-541E-4B9E-AF16-6A26ED1A20BB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6245,13 +6716,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.246</c:v>
+                  <c:v>0.247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22800000000000001</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19900000000000001</c:v>
+                  <c:v>0.20100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11217,7 +11688,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11513,10 +11984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09DDCF-466C-41F8-A5D5-C312E834D36F}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:M10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11536,25 +12007,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
@@ -11566,133 +12038,133 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
         <v>4.38</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="1">
         <v>3.3</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="1">
         <v>3.89</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="1">
         <v>2.36</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="1">
         <v>2.77</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="1">
         <v>0.29699999999999999</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="1">
         <v>0.21</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="1">
         <v>0.24199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1">
         <v>19.02</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="1">
         <v>11.21</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="1">
         <v>20.52</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="1">
         <v>16.059999999999999</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="1">
         <v>11.39</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="1">
         <v>18.3</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="1">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="1">
         <v>0.19900000000000001</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="1">
         <v>0.26200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>42.84</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>29.22</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="1">
         <v>44.72</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="1">
         <v>40.229999999999997</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="1">
         <v>30.25</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="1">
         <v>42.19</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="1">
         <v>0.222</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="1">
         <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="1"/>
@@ -11707,112 +12179,112 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="1">
         <v>1.17</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="1">
         <v>0.91</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <v>1.44</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="1">
         <v>1.04</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="1">
         <v>0.9</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="1">
         <v>1.37</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>0.17299999999999999</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>0.157</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="1">
         <v>10.23</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="1">
         <v>6.92</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="1">
         <v>13.86</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="1">
         <v>9.4700000000000006</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="1">
         <v>7.02</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="1">
         <v>11.8</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>0.218</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>0.183</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="1">
         <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="1">
         <v>31.7</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="1">
         <v>23.41</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="1">
         <v>38.409999999999997</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="1">
         <v>31.27</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="1">
         <v>22.94</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="1">
         <v>36.43</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>0.17699999999999999</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="1">
         <v>0.22700000000000001</v>
       </c>
     </row>
@@ -11848,65 +12320,65 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="D14" s="1">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="E14" s="1">
-        <v>3.86</v>
+        <v>3.38</v>
       </c>
       <c r="F14" s="1">
-        <v>2.0299999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="G14" s="1">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="H14" s="1">
-        <v>3.54</v>
+        <v>3.26</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K14" s="1">
-        <v>0.221</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0.183</v>
+        <v>0.185</v>
       </c>
       <c r="M14" s="1">
-        <v>0.29099999999999998</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>10.45</v>
+        <v>10.57</v>
       </c>
       <c r="D15" s="1">
         <v>6.87</v>
       </c>
       <c r="E15" s="1">
-        <v>15.06</v>
+        <v>15.36</v>
       </c>
       <c r="F15" s="1">
-        <v>11.1</v>
+        <v>11.09</v>
       </c>
       <c r="G15" s="1">
         <v>6.84</v>
       </c>
       <c r="H15" s="1">
-        <v>14.42</v>
+        <v>14.65</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>11</v>
@@ -11918,43 +12390,43 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>0.26900000000000002</v>
+        <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1">
-        <v>35.94</v>
+        <v>36.17</v>
       </c>
       <c r="D16" s="1">
-        <v>21.1</v>
+        <v>21.47</v>
       </c>
       <c r="E16" s="1">
-        <v>39.520000000000003</v>
+        <v>40.57</v>
       </c>
       <c r="F16" s="1">
-        <v>36.270000000000003</v>
+        <v>36.6</v>
       </c>
       <c r="G16" s="1">
-        <v>20.65</v>
+        <v>20.81</v>
       </c>
       <c r="H16" s="1">
-        <v>38.47</v>
+        <v>39.61</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="1">
-        <v>0.22800000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="L16" s="1">
-        <v>0.17699999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>0.24</v>
+        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -11989,20 +12461,20 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>4.22</v>
+        <v>4.24</v>
       </c>
       <c r="D20" s="1">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="E20" s="1">
-        <v>5.43</v>
+        <v>5.45</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
@@ -12011,7 +12483,7 @@
         <v>1.6</v>
       </c>
       <c r="H20" s="1">
-        <v>5.32</v>
+        <v>5.33</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>10</v>
@@ -12027,7 +12499,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -12035,19 +12507,19 @@
         <v>16.690000000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>10.210000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="E21" s="1">
-        <v>22.34</v>
+        <v>22.59</v>
       </c>
       <c r="F21" s="1">
         <v>16.079999999999998</v>
       </c>
       <c r="G21" s="1">
-        <v>10.16</v>
+        <v>10.17</v>
       </c>
       <c r="H21" s="1">
-        <v>22.28</v>
+        <v>22.42</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>11</v>
@@ -12059,31 +12531,31 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>0.29399999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1">
-        <v>40.89</v>
+        <v>41.02</v>
       </c>
       <c r="D22" s="1">
-        <v>28.93</v>
+        <v>29.14</v>
       </c>
       <c r="E22" s="1">
-        <v>53.51</v>
+        <v>53.82</v>
       </c>
       <c r="F22" s="1">
-        <v>40.06</v>
+        <v>40.31</v>
       </c>
       <c r="G22" s="1">
-        <v>28.76</v>
+        <v>28.95</v>
       </c>
       <c r="H22" s="1">
-        <v>52.62</v>
+        <v>52.96</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>12</v>
@@ -12095,7 +12567,7 @@
         <v>0.182</v>
       </c>
       <c r="M22" s="1">
-        <v>0.249</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -12130,7 +12602,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -12149,10 +12621,10 @@
         <v>2.9</v>
       </c>
       <c r="G26" s="1">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="H26" s="1">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>10</v>
@@ -12164,11 +12636,11 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -12176,19 +12648,19 @@
         <v>15.36</v>
       </c>
       <c r="D27" s="1">
-        <v>11.14</v>
+        <v>11.12</v>
       </c>
       <c r="E27" s="1">
-        <v>17.46</v>
+        <v>17.47</v>
       </c>
       <c r="F27" s="1">
         <v>16.059999999999999</v>
       </c>
       <c r="G27" s="1">
-        <v>11.75</v>
+        <v>11.73</v>
       </c>
       <c r="H27" s="1">
-        <v>18.22</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>11</v>
@@ -12200,11 +12672,11 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="M27" s="1">
-        <v>0.28399999999999997</v>
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
@@ -12212,10 +12684,10 @@
         <v>37.51</v>
       </c>
       <c r="D28" s="1">
-        <v>25.29</v>
+        <v>25.27</v>
       </c>
       <c r="E28" s="1">
-        <v>37</v>
+        <v>37.08</v>
       </c>
       <c r="F28" s="1">
         <v>38.659999999999997</v>
@@ -12224,7 +12696,7 @@
         <v>26.03</v>
       </c>
       <c r="H28" s="1">
-        <v>37.99</v>
+        <v>38.07</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>12</v>
@@ -12271,14 +12743,14 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="D32" s="1">
         <v>1.18</v>
@@ -12287,19 +12759,19 @@
         <v>3.33</v>
       </c>
       <c r="F32" s="1">
-        <v>2.48</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G32" s="1">
         <v>1.02</v>
       </c>
       <c r="H32" s="1">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K32" s="1">
-        <v>0.223</v>
+        <v>0.224</v>
       </c>
       <c r="L32" s="1">
         <v>0.154</v>
@@ -12308,70 +12780,70 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1">
-        <v>14.18</v>
+        <v>14.39</v>
       </c>
       <c r="D33" s="1">
-        <v>7.67</v>
+        <v>7.6</v>
       </c>
       <c r="E33" s="1">
-        <v>15.81</v>
+        <v>15.96</v>
       </c>
       <c r="F33" s="1">
-        <v>13.92</v>
+        <v>14.12</v>
       </c>
       <c r="G33" s="1">
-        <v>7.65</v>
+        <v>7.59</v>
       </c>
       <c r="H33" s="1">
-        <v>16.54</v>
+        <v>16.66</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K33" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="L33" s="1">
-        <v>0.185</v>
+        <v>0.184</v>
       </c>
       <c r="M33" s="1">
-        <v>0.247</v>
+        <v>0.248</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1">
-        <v>37.450000000000003</v>
+        <v>38.01</v>
       </c>
       <c r="D34" s="1">
-        <v>22.04</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1">
-        <v>39.53</v>
+        <v>39.71</v>
       </c>
       <c r="F34" s="1">
-        <v>37.229999999999997</v>
+        <v>37.9</v>
       </c>
       <c r="G34" s="1">
-        <v>22.65</v>
+        <v>22.6</v>
       </c>
       <c r="H34" s="1">
-        <v>40.08</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K34" s="1">
-        <v>0.214</v>
+        <v>0.216</v>
       </c>
       <c r="L34" s="1">
         <v>0.17299999999999999</v>
@@ -12380,7 +12852,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
         <v>0</v>
@@ -12411,117 +12883,132 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="1">
-        <v>2.71</v>
+        <v>2.93</v>
       </c>
       <c r="D38" s="1">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="E38" s="1">
-        <v>3.73</v>
+        <v>3.91</v>
       </c>
       <c r="F38" s="1">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="G38" s="1">
-        <v>2.5</v>
+        <v>2.61</v>
       </c>
       <c r="H38" s="1">
-        <v>3.61</v>
+        <v>3.77</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K38" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="L38" s="1">
         <v>0.254</v>
       </c>
-      <c r="L38" s="1">
-        <v>0.249</v>
-      </c>
       <c r="M38" s="1">
-        <v>0.307</v>
+        <v>0.314</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1">
-        <v>16.23</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="D39" s="1">
-        <v>16.38</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="E39" s="1">
-        <v>21.06</v>
+        <v>22.05</v>
       </c>
       <c r="F39" s="1">
-        <v>15.51</v>
+        <v>16.03</v>
       </c>
       <c r="G39" s="1">
-        <v>14.69</v>
+        <v>15.1</v>
       </c>
       <c r="H39" s="1">
-        <v>20.25</v>
+        <v>21.07</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K39" s="1">
-        <v>0.26300000000000001</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="L39" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="M39" s="1">
-        <v>0.311</v>
+        <v>0.317</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="1">
-        <v>42.59</v>
+        <v>43.3</v>
       </c>
       <c r="D40" s="1">
-        <v>41.26</v>
+        <v>42.56</v>
       </c>
       <c r="E40" s="1">
-        <v>55.62</v>
+        <v>58.21</v>
       </c>
       <c r="F40" s="1">
-        <v>41.27</v>
+        <v>42.18</v>
       </c>
       <c r="G40" s="1">
-        <v>38.549999999999997</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="H40" s="1">
-        <v>52.37</v>
+        <v>54.6</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K40" s="1">
-        <v>0.24199999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="L40" s="1">
-        <v>0.255</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="M40" s="1">
-        <v>0.28399999999999997</v>
+        <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>0</v>
@@ -12551,25 +13038,58 @@
       <c r="M43" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="1">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="D44" s="1">
         <v>1.1299999999999999</v>
       </c>
       <c r="E44" s="1">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="F44" s="1">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="G44" s="1">
         <v>1.06</v>
@@ -12581,89 +13101,90 @@
         <v>10</v>
       </c>
       <c r="K44" s="1">
-        <v>0.23699999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="L44" s="1">
-        <v>0.14899999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="M44" s="1">
-        <v>0.246</v>
+        <v>0.247</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1">
-        <v>12.29</v>
+        <v>12.62</v>
       </c>
       <c r="D45" s="1">
-        <v>9.0500000000000007</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="E45" s="1">
-        <v>15.03</v>
+        <v>15.72</v>
       </c>
       <c r="F45" s="1">
-        <v>12.47</v>
+        <v>12.6</v>
       </c>
       <c r="G45" s="1">
-        <v>8.2799999999999994</v>
+        <v>8.26</v>
       </c>
       <c r="H45" s="1">
-        <v>14.51</v>
+        <v>14.67</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K45" s="1">
-        <v>0.21299999999999999</v>
+        <v>0.214</v>
       </c>
       <c r="L45" s="1">
         <v>0.17599999999999999</v>
       </c>
       <c r="M45" s="1">
-        <v>0.22800000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="1">
-        <v>32.14</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="D46" s="1">
-        <v>26.37</v>
+        <v>26.34</v>
       </c>
       <c r="E46" s="1">
-        <v>37.56</v>
+        <v>38.65</v>
       </c>
       <c r="F46" s="1">
-        <v>33.450000000000003</v>
+        <v>33.94</v>
       </c>
       <c r="G46" s="1">
-        <v>25.84</v>
+        <v>25.83</v>
       </c>
       <c r="H46" s="1">
-        <v>37.19</v>
+        <v>37.83</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K46" s="1">
-        <v>0.19</v>
+        <v>0.192</v>
       </c>
       <c r="L46" s="1">
         <v>0.17</v>
       </c>
       <c r="M46" s="1">
-        <v>0.19900000000000001</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="O42:Y42"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A38:A40"/>
@@ -12673,6 +13194,30 @@
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A20:A22"/>
   </mergeCells>
+  <conditionalFormatting sqref="O43:T43 K2:M4 K8:M10 K14:M16 K20:M22 K26:M28 K32:M34 K38:M40 K44:M46">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43:T43 K44:M46 K38:M40 K32:M34 K26:M28 K20:M22 K14:M16 K8:M10 K2:M4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/results_method1_and_2/method_entropies/KLd_JSd_interval.xlsx
+++ b/results_method1_and_2/method_entropies/KLd_JSd_interval.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8847AEC-59D7-4BEC-9008-75065B7EA9EF}"/>
+  <xr:revisionPtr revIDLastSave="481" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE4E474-6072-4F64-BAAC-131C8530082E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="KLd_JSd_interval" sheetId="1" r:id="rId1"/>
+    <sheet name="evaluation_interval" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="23">
   <si>
     <t>KLd: karykis -- pro-karykis</t>
   </si>
@@ -98,6 +99,12 @@
   <si>
     <t>scale</t>
   </si>
+  <si>
+    <t>evaluation_of_karykis</t>
+  </si>
+  <si>
+    <t>scale_of_evaluation</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,11 +156,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,6 +177,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -264,7 +287,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -411,7 +434,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$2:$J$4</c:f>
+              <c:f>KLd_JSd_interval!$J$2:$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -428,7 +451,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:f>KLd_JSd_interval!$K$2:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -456,7 +479,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -603,7 +626,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$2:$J$4</c:f>
+              <c:f>KLd_JSd_interval!$J$2:$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -620,7 +643,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$4</c:f>
+              <c:f>KLd_JSd_interval!$L$2:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -648,7 +671,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -795,7 +818,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$2:$J$4</c:f>
+              <c:f>KLd_JSd_interval!$J$2:$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -812,7 +835,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$4</c:f>
+              <c:f>KLd_JSd_interval!$M$2:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1113,7 +1136,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1260,7 +1283,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$8:$J$10</c:f>
+              <c:f>KLd_JSd_interval!$J$8:$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1277,7 +1300,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$8:$K$10</c:f>
+              <c:f>KLd_JSd_interval!$K$8:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1305,7 +1328,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1452,7 +1475,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$8:$J$10</c:f>
+              <c:f>KLd_JSd_interval!$J$8:$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1469,7 +1492,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$8:$L$10</c:f>
+              <c:f>KLd_JSd_interval!$L$8:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1497,7 +1520,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1644,7 +1667,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$8:$J$10</c:f>
+              <c:f>KLd_JSd_interval!$J$8:$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1661,7 +1684,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$8:$M$10</c:f>
+              <c:f>KLd_JSd_interval!$M$8:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1962,7 +1985,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2109,7 +2132,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$14:$J$16</c:f>
+              <c:f>KLd_JSd_interval!$J$14:$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2126,7 +2149,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$14:$K$16</c:f>
+              <c:f>KLd_JSd_interval!$K$14:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2154,7 +2177,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2301,7 +2324,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$14:$J$16</c:f>
+              <c:f>KLd_JSd_interval!$J$14:$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2318,7 +2341,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$14:$L$16</c:f>
+              <c:f>KLd_JSd_interval!$L$14:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2346,7 +2369,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2471,7 +2494,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$14:$J$16</c:f>
+              <c:f>KLd_JSd_interval!$J$14:$J$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2488,7 +2511,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$14:$M$16</c:f>
+              <c:f>KLd_JSd_interval!$M$14:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2789,7 +2812,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2936,7 +2959,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$20:$J$22</c:f>
+              <c:f>KLd_JSd_interval!$J$20:$J$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2953,7 +2976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$20:$K$22</c:f>
+              <c:f>KLd_JSd_interval!$K$20:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2981,7 +3004,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3128,7 +3151,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$20:$J$22</c:f>
+              <c:f>KLd_JSd_interval!$J$20:$J$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3145,7 +3168,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$20:$L$22</c:f>
+              <c:f>KLd_JSd_interval!$L$20:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3173,7 +3196,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3298,7 +3321,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$20:$J$22</c:f>
+              <c:f>KLd_JSd_interval!$J$20:$J$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3315,7 +3338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$20:$M$22</c:f>
+              <c:f>KLd_JSd_interval!$M$20:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3616,7 +3639,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3763,7 +3786,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$26:$J$28</c:f>
+              <c:f>KLd_JSd_interval!$J$26:$J$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3780,7 +3803,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$26:$K$28</c:f>
+              <c:f>KLd_JSd_interval!$K$26:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3808,7 +3831,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3955,7 +3978,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$26:$J$28</c:f>
+              <c:f>KLd_JSd_interval!$J$26:$J$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3972,7 +3995,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$26:$L$28</c:f>
+              <c:f>KLd_JSd_interval!$L$26:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4000,7 +4023,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4147,7 +4170,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$26:$J$28</c:f>
+              <c:f>KLd_JSd_interval!$J$26:$J$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4164,7 +4187,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$26:$M$28</c:f>
+              <c:f>KLd_JSd_interval!$M$26:$M$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4465,7 +4488,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4612,7 +4635,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$32:$J$34</c:f>
+              <c:f>KLd_JSd_interval!$J$32:$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4629,7 +4652,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$32:$K$34</c:f>
+              <c:f>KLd_JSd_interval!$K$32:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4657,7 +4680,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4804,7 +4827,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$32:$J$34</c:f>
+              <c:f>KLd_JSd_interval!$J$32:$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4821,7 +4844,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$32:$L$34</c:f>
+              <c:f>KLd_JSd_interval!$L$32:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4849,7 +4872,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4996,7 +5019,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$32:$J$34</c:f>
+              <c:f>KLd_JSd_interval!$J$32:$J$34</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5013,7 +5036,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$32:$M$34</c:f>
+              <c:f>KLd_JSd_interval!$M$32:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5314,7 +5337,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5461,7 +5484,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$38:$J$40</c:f>
+              <c:f>KLd_JSd_interval!$J$38:$J$40</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5478,7 +5501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$38:$K$40</c:f>
+              <c:f>KLd_JSd_interval!$K$38:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5506,7 +5529,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5653,7 +5676,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$38:$J$40</c:f>
+              <c:f>KLd_JSd_interval!$J$38:$J$40</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5670,7 +5693,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$38:$L$40</c:f>
+              <c:f>KLd_JSd_interval!$L$38:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5698,7 +5721,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5845,7 +5868,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$38:$J$40</c:f>
+              <c:f>KLd_JSd_interval!$J$38:$J$40</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5862,7 +5885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$38:$M$40</c:f>
+              <c:f>KLd_JSd_interval!$M$38:$M$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6163,7 +6186,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6310,7 +6333,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$44:$J$46</c:f>
+              <c:f>KLd_JSd_interval!$J$44:$J$46</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6327,7 +6350,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$K$46</c:f>
+              <c:f>KLd_JSd_interval!$K$44:$K$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6355,7 +6378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6502,7 +6525,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$44:$J$46</c:f>
+              <c:f>KLd_JSd_interval!$J$44:$J$46</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6519,7 +6542,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$44:$L$46</c:f>
+              <c:f>KLd_JSd_interval!$L$44:$L$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6547,7 +6570,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6694,7 +6717,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$44:$J$46</c:f>
+              <c:f>KLd_JSd_interval!$J$44:$J$46</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6711,7 +6734,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$44:$M$46</c:f>
+              <c:f>KLd_JSd_interval!$M$44:$M$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -11986,8 +12009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09DDCF-466C-41F8-A5D5-C312E834D36F}">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42:Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12038,7 +12061,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -12076,7 +12099,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -12112,7 +12135,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -12179,7 +12202,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -12217,7 +12240,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -12253,7 +12276,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -12320,7 +12343,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -12358,7 +12381,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -12394,7 +12417,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -12461,7 +12484,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -12499,7 +12522,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -12535,7 +12558,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
@@ -12602,7 +12625,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -12640,7 +12663,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -12676,7 +12699,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
@@ -12743,7 +12766,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -12781,7 +12804,7 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
@@ -12817,7 +12840,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
@@ -12884,7 +12907,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -12922,7 +12945,7 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
@@ -12958,7 +12981,7 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
@@ -12994,19 +13017,19 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O42" s="4" t="s">
+      <c r="O42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
@@ -13073,7 +13096,7 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -13111,7 +13134,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
@@ -13147,7 +13170,7 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
@@ -13221,4 +13244,825 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BF8126-54B6-4FA0-BA66-713989B713E4}">
+  <dimension ref="A1:T51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <f>ROUND(B3/C3,3)</f>
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="F4" s="5">
+        <f>ROUND(B4/C4,3)</f>
+        <v>1.286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <f>ROUND(B5/C5,3)</f>
+        <v>1.2270000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <f>ROUND(B9/C9,3)</f>
+        <v>1.1020000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.218</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.183</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F10" s="5">
+        <f>ROUND(B10/C10,3)</f>
+        <v>1.1910000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <f>ROUND(B11/C11,3)</f>
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F15" s="5">
+        <f>ROUND(B15/C15,3)</f>
+        <v>1.1459999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.222</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F16" s="5">
+        <f>ROUND(B16/C16,3)</f>
+        <v>1.2270000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <f>ROUND(B17/C17,3)</f>
+        <v>1.2789999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F21" s="5">
+        <f>ROUND(B21/C21,3)</f>
+        <v>1.663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F22" s="5">
+        <f>ROUND(B22/C22,3)</f>
+        <v>1.333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.182</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="5">
+        <f>ROUND(B23/C23,3)</f>
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F27" s="5">
+        <f>ROUND(B27/C27,3)</f>
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F28" s="5">
+        <f>ROUND(B28/C28,3)</f>
+        <v>1.143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F29" s="5">
+        <f>ROUND(B29/C29,3)</f>
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="F33" s="5">
+        <f>ROUND(B33/C33,3)</f>
+        <v>1.4550000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="F34" s="5">
+        <f>ROUND(B34/C34,3)</f>
+        <v>1.2829999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="F35" s="5">
+        <f>ROUND(B35/C35,3)</f>
+        <v>1.2490000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.254</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.314</v>
+      </c>
+      <c r="F39" s="5">
+        <f>ROUND(B39/C39,3)</f>
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.317</v>
+      </c>
+      <c r="F40" s="5">
+        <f>ROUND(B40/C40,3)</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F41" s="5">
+        <f>ROUND(B41/C41,3)</f>
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="F45" s="5">
+        <f>ROUND(B45/C45,3)</f>
+        <v>1.6080000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.214</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F46" s="5">
+        <f>ROUND(B46/C46,3)</f>
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F47" s="5">
+        <f>ROUND(B47/C47,3)</f>
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="H2:T2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:D5 B9:D11 B15:D17 B21:D23 B27:D29 B33:D35 B39:D41 B45:D47">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:F51 B45:D47 B39:D41 B33:D35 B27:D29 B21:D23 B15:D17 B9:D11 B3:D5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5 F9:F11 F15:F17 F21:F23 F27:F29 F33:F35 F39:F41 F45:F47">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:T3 F3:F5 F9:F11 F15:F17 F21:F23 F27:F29 F33:F35 F39:F41 F45:F47">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results_method1_and_2/method_entropies/KLd_JSd_interval.xlsx
+++ b/results_method1_and_2/method_entropies/KLd_JSd_interval.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f69e34da3c4bcbcf/PhD/method_entropies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AE4E474-6072-4F64-BAAC-131C8530082E}"/>
+  <xr:revisionPtr revIDLastSave="711" documentId="8_{629345A9-521B-47CB-A03F-AAE8FE51E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3196188-7952-4A4C-AAEB-1ADB54D19FAA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDE8A218-C954-45DF-9B80-98FBF50899EF}"/>
   </bookViews>
   <sheets>
     <sheet name="KLd_JSd_interval" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="25">
   <si>
     <t>KLd: karykis -- pro-karykis</t>
   </si>
@@ -105,6 +105,12 @@
   <si>
     <t>scale_of_evaluation</t>
   </si>
+  <si>
+    <t>5-grams</t>
+  </si>
+  <si>
+    <t>case_study</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,11 +171,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,15 +199,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -210,7 +238,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -287,7 +315,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -434,7 +462,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$2:$J$4</c:f>
+              <c:f>KLd_JSd_interval!$M$2:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -451,7 +479,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$K$2:$K$4</c:f>
+              <c:f>KLd_JSd_interval!$N$2:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -479,7 +507,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -626,7 +654,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$2:$J$4</c:f>
+              <c:f>KLd_JSd_interval!$M$2:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -643,7 +671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$L$2:$L$4</c:f>
+              <c:f>KLd_JSd_interval!$O$2:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -671,7 +699,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -818,7 +846,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$2:$J$4</c:f>
+              <c:f>KLd_JSd_interval!$M$2:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -835,7 +863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$M$2:$M$4</c:f>
+              <c:f>KLd_JSd_interval!$P$2:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1059,7 +1087,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1136,7 +1164,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1283,7 +1311,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$8:$J$10</c:f>
+              <c:f>KLd_JSd_interval!$M$8:$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1300,7 +1328,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$K$8:$K$10</c:f>
+              <c:f>KLd_JSd_interval!$N$8:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1328,7 +1356,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1475,7 +1503,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$8:$J$10</c:f>
+              <c:f>KLd_JSd_interval!$M$8:$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1492,7 +1520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$L$8:$L$10</c:f>
+              <c:f>KLd_JSd_interval!$O$8:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1520,7 +1548,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1667,7 +1695,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$8:$J$10</c:f>
+              <c:f>KLd_JSd_interval!$M$8:$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1684,7 +1712,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$M$8:$M$10</c:f>
+              <c:f>KLd_JSd_interval!$P$8:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1908,7 +1936,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1985,7 +2013,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2055,8 +2083,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.7605300892000067E-2"/>
-                  <c:y val="2.2668016782421857E-3"/>
+                  <c:x val="3.2515109258700034E-2"/>
+                  <c:y val="-4.6867751378458104E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2070,6 +2098,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-91D0-4663-A3E8-13A6DE6741F5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2695492525300009E-2"/>
+                  <c:y val="2.4600689431287771E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F87D-40F0-BFB5-0A96807DFC20}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2132,9 +2182,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$14:$J$16</c:f>
+              <c:f>KLd_JSd_interval!$M$14:$M$17</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -2143,16 +2193,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$K$14:$K$16</c:f>
+              <c:f>KLd_JSd_interval!$N$14:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.21199999999999999</c:v>
                 </c:pt>
@@ -2161,6 +2214,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +2233,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2247,8 +2303,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.0135487514975878E-4"/>
-                  <c:y val="1.5667134330069537E-2"/>
+                  <c:x val="-3.3767303691750725E-2"/>
+                  <c:y val="8.2668797589206297E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2262,6 +2318,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-91D0-4663-A3E8-13A6DE6741F5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8677112058450869E-2"/>
+                  <c:y val="6.0334909836160709E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F87D-40F0-BFB5-0A96807DFC20}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2324,9 +2402,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$14:$J$16</c:f>
+              <c:f>KLd_JSd_interval!$M$14:$M$17</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -2335,16 +2413,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$L$14:$L$16</c:f>
+              <c:f>KLd_JSd_interval!$O$14:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.185</c:v>
                 </c:pt>
@@ -2353,6 +2434,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,7 +2453,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2417,8 +2501,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.5330779975249747E-2"/>
-                  <c:y val="-5.5801306479676419E-2"/>
+                  <c:x val="-1.1673166041600472E-2"/>
+                  <c:y val="-0.10046908198576755"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -2432,6 +2516,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-91D0-4663-A3E8-13A6DE6741F5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7785684158599956E-2"/>
+                  <c:y val="-3.3467418726630831E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F87D-40F0-BFB5-0A96807DFC20}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2494,9 +2600,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$14:$J$16</c:f>
+              <c:f>KLd_JSd_interval!$M$14:$M$17</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2-grams</c:v>
                 </c:pt>
@@ -2505,16 +2611,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$M$14:$M$16</c:f>
+              <c:f>KLd_JSd_interval!$P$14:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.27800000000000002</c:v>
                 </c:pt>
@@ -2523,6 +2632,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2735,7 +2847,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2812,7 +2924,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2959,7 +3071,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$20:$J$22</c:f>
+              <c:f>KLd_JSd_interval!$M$20:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2976,7 +3088,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$K$20:$K$22</c:f>
+              <c:f>KLd_JSd_interval!$N$20:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3004,7 +3116,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3151,7 +3263,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$20:$J$22</c:f>
+              <c:f>KLd_JSd_interval!$M$20:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3168,7 +3280,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$L$20:$L$22</c:f>
+              <c:f>KLd_JSd_interval!$O$20:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3196,7 +3308,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3321,7 +3433,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$20:$J$22</c:f>
+              <c:f>KLd_JSd_interval!$M$20:$M$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3338,7 +3450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$M$20:$M$22</c:f>
+              <c:f>KLd_JSd_interval!$P$20:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3562,7 +3674,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3639,7 +3751,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3786,7 +3898,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$26:$J$28</c:f>
+              <c:f>KLd_JSd_interval!$M$26:$M$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3803,7 +3915,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$K$26:$K$28</c:f>
+              <c:f>KLd_JSd_interval!$N$26:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3831,7 +3943,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3978,7 +4090,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$26:$J$28</c:f>
+              <c:f>KLd_JSd_interval!$M$26:$M$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3995,7 +4107,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$L$26:$L$28</c:f>
+              <c:f>KLd_JSd_interval!$O$26:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4023,7 +4135,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4170,7 +4282,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$26:$J$28</c:f>
+              <c:f>KLd_JSd_interval!$M$26:$M$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4187,7 +4299,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$M$26:$M$28</c:f>
+              <c:f>KLd_JSd_interval!$P$26:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4411,7 +4523,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4488,7 +4600,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4635,7 +4747,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$32:$J$34</c:f>
+              <c:f>KLd_JSd_interval!$M$32:$M$34</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4652,7 +4764,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$K$32:$K$34</c:f>
+              <c:f>KLd_JSd_interval!$N$32:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4680,7 +4792,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4728,8 +4840,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.6214297951634176E-2"/>
-                  <c:y val="5.1401354734942395E-2"/>
+                  <c:x val="-4.1301322010582585E-2"/>
+                  <c:y val="6.926846493737894E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4750,8 +4862,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.8678398241680208E-2"/>
-                  <c:y val="6.0334909836160792E-2"/>
+                  <c:x val="-4.3765536738462785E-2"/>
+                  <c:y val="6.926846493737894E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -4827,7 +4939,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$32:$J$34</c:f>
+              <c:f>KLd_JSd_interval!$M$32:$M$34</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4844,7 +4956,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$L$32:$L$34</c:f>
+              <c:f>KLd_JSd_interval!$O$32:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4872,7 +4984,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5019,7 +5131,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$32:$J$34</c:f>
+              <c:f>KLd_JSd_interval!$M$32:$M$34</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5036,7 +5148,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$M$32:$M$34</c:f>
+              <c:f>KLd_JSd_interval!$P$32:$P$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5260,7 +5372,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5337,7 +5449,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5484,7 +5596,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$38:$J$40</c:f>
+              <c:f>KLd_JSd_interval!$M$38:$M$40</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5501,7 +5613,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$K$38:$K$40</c:f>
+              <c:f>KLd_JSd_interval!$N$38:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5529,7 +5641,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5676,7 +5788,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$38:$J$40</c:f>
+              <c:f>KLd_JSd_interval!$M$38:$M$40</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5693,7 +5805,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$L$38:$L$40</c:f>
+              <c:f>KLd_JSd_interval!$O$38:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5721,7 +5833,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5868,7 +5980,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$38:$J$40</c:f>
+              <c:f>KLd_JSd_interval!$M$38:$M$40</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5885,7 +5997,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$M$38:$M$40</c:f>
+              <c:f>KLd_JSd_interval!$P$38:$P$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6109,7 +6221,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="el-GR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6186,7 +6298,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$K$1</c:f>
+              <c:f>KLd_JSd_interval!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6333,7 +6445,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$44:$J$46</c:f>
+              <c:f>KLd_JSd_interval!$M$44:$M$46</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6350,7 +6462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$K$44:$K$46</c:f>
+              <c:f>KLd_JSd_interval!$N$44:$N$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6378,7 +6490,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$L$1</c:f>
+              <c:f>KLd_JSd_interval!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6525,7 +6637,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$44:$J$46</c:f>
+              <c:f>KLd_JSd_interval!$M$44:$M$46</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6542,7 +6654,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$L$44:$L$46</c:f>
+              <c:f>KLd_JSd_interval!$O$44:$O$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6570,7 +6682,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$M$1</c:f>
+              <c:f>KLd_JSd_interval!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6717,7 +6829,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>KLd_JSd_interval!$J$44:$J$46</c:f>
+              <c:f>KLd_JSd_interval!$M$44:$M$46</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6734,7 +6846,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>KLd_JSd_interval!$M$44:$M$46</c:f>
+              <c:f>KLd_JSd_interval!$P$44:$P$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6920,6 +7032,335 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>case_study (interval)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KLd_JSd_interval!$N$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pro-karykis -- karykis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>KLd_JSd_interval!$M$51:$M$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2-grams</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-grams</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4-grams</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5-grams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KLd_JSd_interval!$N$51:$N$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FC6-40A0-9714-5FAE5D2AF666}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2046771727"/>
+        <c:axId val="2046778799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2046771727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046778799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2046778799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046771727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -7275,6 +7716,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -11403,17 +11884,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>183273</xdr:rowOff>
@@ -11443,13 +12440,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>60247</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>5630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>326947</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>181843</xdr:rowOff>
@@ -11481,13 +12478,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
@@ -11519,13 +12516,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>86591</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>349827</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
@@ -11557,13 +12554,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>307731</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>153865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>574431</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>139578</xdr:rowOff>
@@ -11595,13 +12592,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>389965</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>153801</xdr:rowOff>
@@ -11633,13 +12630,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
@@ -11671,13 +12668,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
@@ -11707,11 +12704,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519544</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>242453</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Γράφημα 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC85A56-26E1-4F4B-8C80-EF67D94B9516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12007,29 +13040,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09DDCF-466C-41F8-A5D5-C312E834D36F}">
-  <dimension ref="A1:Y46"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42:Y43"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC50" sqref="AC50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -12049,19 +13086,22 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -12085,21 +13125,24 @@
       <c r="H2" s="1">
         <v>2.77</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1">
+      <c r="N2" s="1">
         <v>0.29699999999999999</v>
       </c>
-      <c r="L2" s="1">
+      <c r="O2" s="1">
         <v>0.21</v>
       </c>
-      <c r="M2" s="1">
+      <c r="P2" s="1">
         <v>0.24199999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -12121,21 +13164,24 @@
       <c r="H3" s="1">
         <v>18.3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1">
+      <c r="N3" s="1">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L3" s="1">
+      <c r="O3" s="1">
         <v>0.19900000000000001</v>
       </c>
-      <c r="M3" s="1">
+      <c r="P3" s="1">
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -12157,20 +13203,67 @@
       <c r="H4" s="1">
         <v>42.19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="M4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="1">
+      <c r="N4" s="1">
         <v>0.222</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="M4" s="1">
+      <c r="P4" s="1">
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>70.11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>53.89</v>
+      </c>
+      <c r="E5" s="1">
+        <v>75.09</v>
+      </c>
+      <c r="F5" s="1">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="G5" s="1">
+        <v>53.61</v>
+      </c>
+      <c r="H5" s="1">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="M5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
         <v>0</v>
@@ -12190,128 +13283,184 @@
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="11">
         <v>1.17</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="11">
         <v>0.91</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="11">
         <v>1.44</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="11">
         <v>1.04</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="11">
         <v>0.9</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="11">
         <v>1.37</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="M8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="1">
+      <c r="N8" s="1">
         <v>0.17299999999999999</v>
       </c>
-      <c r="L8" s="1">
+      <c r="O8" s="1">
         <v>0.157</v>
       </c>
-      <c r="M8" s="1">
+      <c r="P8" s="1">
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="11">
         <v>10.23</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="11">
         <v>6.92</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="11">
         <v>13.86</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="11">
         <v>9.4700000000000006</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="11">
         <v>7.02</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="11">
         <v>11.8</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="M9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="1">
+      <c r="N9" s="1">
         <v>0.218</v>
       </c>
-      <c r="L9" s="1">
+      <c r="O9" s="1">
         <v>0.183</v>
       </c>
-      <c r="M9" s="1">
+      <c r="P9" s="1">
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="11">
         <v>31.7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="11">
         <v>23.41</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="11">
         <v>38.409999999999997</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="11">
         <v>31.27</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="11">
         <v>22.94</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="11">
         <v>36.43</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="M10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="1">
+      <c r="N10" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O10" s="1">
         <v>0.17699999999999999</v>
       </c>
-      <c r="M10" s="1">
+      <c r="P10" s="1">
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11">
+        <v>65.55</v>
+      </c>
+      <c r="D11" s="11">
+        <v>45.07</v>
+      </c>
+      <c r="E11" s="11">
+        <v>74.41</v>
+      </c>
+      <c r="F11" s="11">
+        <v>66.510000000000005</v>
+      </c>
+      <c r="G11" s="11">
+        <v>44.11</v>
+      </c>
+      <c r="H11" s="11">
+        <v>74.03</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="M11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.158</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>0</v>
@@ -12331,19 +13480,22 @@
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -12367,21 +13519,24 @@
       <c r="H14" s="1">
         <v>3.26</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="M14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="1">
+      <c r="N14" s="1">
         <v>0.21199999999999999</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O14" s="1">
         <v>0.185</v>
       </c>
-      <c r="M14" s="1">
+      <c r="P14" s="1">
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -12403,21 +13558,24 @@
       <c r="H15" s="1">
         <v>14.65</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="M15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="1">
+      <c r="N15" s="1">
         <v>0.222</v>
       </c>
-      <c r="L15" s="1">
+      <c r="O15" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="M15" s="1">
+      <c r="P15" s="1">
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -12439,20 +13597,67 @@
       <c r="H16" s="1">
         <v>39.61</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="M16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="1">
+      <c r="N16" s="1">
         <v>0.22900000000000001</v>
       </c>
-      <c r="L16" s="1">
+      <c r="O16" s="1">
         <v>0.17899999999999999</v>
       </c>
-      <c r="M16" s="1">
+      <c r="P16" s="1">
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <v>67.41</v>
+      </c>
+      <c r="D17" s="1">
+        <v>38.44</v>
+      </c>
+      <c r="E17" s="1">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="F17" s="1">
+        <v>67.67</v>
+      </c>
+      <c r="G17" s="1">
+        <v>37.54</v>
+      </c>
+      <c r="H17" s="1">
+        <v>71.77</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="M17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
         <v>0</v>
@@ -12472,128 +13677,184 @@
       <c r="H19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="11">
         <v>4.24</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="11">
         <v>1.57</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="11">
         <v>5.45</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="11">
         <v>4</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="11">
         <v>1.6</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="11">
         <v>5.33</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="M20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="1">
+      <c r="N20" s="11">
         <v>0.30599999999999999</v>
       </c>
-      <c r="L20" s="1">
+      <c r="O20" s="11">
         <v>0.184</v>
       </c>
-      <c r="M20" s="1">
+      <c r="P20" s="11">
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="11">
         <v>16.690000000000001</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="11">
         <v>10.25</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="11">
         <v>22.59</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="11">
         <v>16.079999999999998</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="11">
         <v>10.17</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="11">
         <v>22.42</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="M21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="1">
+      <c r="N21" s="11">
         <v>0.26800000000000002</v>
       </c>
-      <c r="L21" s="1">
+      <c r="O21" s="11">
         <v>0.20100000000000001</v>
       </c>
-      <c r="M21" s="1">
+      <c r="P21" s="11">
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="11">
         <v>41.02</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="11">
         <v>29.14</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="11">
         <v>53.82</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="11">
         <v>40.31</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="11">
         <v>28.95</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="11">
         <v>52.96</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="M22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="1">
+      <c r="N22" s="11">
         <v>0.22500000000000001</v>
       </c>
-      <c r="L22" s="1">
+      <c r="O22" s="11">
         <v>0.182</v>
       </c>
-      <c r="M22" s="1">
+      <c r="P22" s="11">
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="11">
+        <v>71.44</v>
+      </c>
+      <c r="D23" s="11">
+        <v>51.94</v>
+      </c>
+      <c r="E23" s="11">
+        <v>81.88</v>
+      </c>
+      <c r="F23" s="11">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="G23" s="11">
+        <v>51.83</v>
+      </c>
+      <c r="H23" s="11">
+        <v>81.89</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.192</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0.156</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
         <v>0</v>
@@ -12613,19 +13874,22 @@
       <c r="H25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2" t="s">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -12649,21 +13913,24 @@
       <c r="H26" s="1">
         <v>5.97</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="M26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="1">
+      <c r="N26" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="L26" s="1">
+      <c r="O26" s="1">
         <v>0.32400000000000001</v>
       </c>
-      <c r="M26" s="1">
+      <c r="P26" s="1">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -12685,21 +13952,24 @@
       <c r="H27" s="1">
         <v>18.239999999999998</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="M27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="1">
+      <c r="N27" s="1">
         <v>0.27200000000000002</v>
       </c>
-      <c r="L27" s="1">
+      <c r="O27" s="1">
         <v>0.23799999999999999</v>
       </c>
-      <c r="M27" s="1">
+      <c r="P27" s="1">
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
@@ -12721,20 +13991,67 @@
       <c r="H28" s="1">
         <v>38.07</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="M28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="1">
+      <c r="N28" s="1">
         <v>0.23899999999999999</v>
       </c>
-      <c r="L28" s="1">
+      <c r="O28" s="1">
         <v>0.20799999999999999</v>
       </c>
-      <c r="M28" s="1">
+      <c r="P28" s="1">
         <v>0.24</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
+        <v>62.53</v>
+      </c>
+      <c r="D29" s="1">
+        <v>47.34</v>
+      </c>
+      <c r="E29" s="1">
+        <v>62.26</v>
+      </c>
+      <c r="F29" s="1">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="G29" s="1">
+        <v>47.48</v>
+      </c>
+      <c r="H29" s="1">
+        <v>64.010000000000005</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="M29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>0</v>
@@ -12754,19 +14071,22 @@
       <c r="H31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="2" t="s">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -12790,21 +14110,24 @@
       <c r="H32" s="1">
         <v>3.21</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="M32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="1">
+      <c r="N32" s="1">
         <v>0.224</v>
       </c>
-      <c r="L32" s="1">
+      <c r="O32" s="1">
         <v>0.154</v>
       </c>
-      <c r="M32" s="1">
+      <c r="P32" s="1">
         <v>0.245</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
@@ -12826,21 +14149,24 @@
       <c r="H33" s="1">
         <v>16.66</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="M33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="1">
+      <c r="N33" s="1">
         <v>0.23599999999999999</v>
       </c>
-      <c r="L33" s="1">
+      <c r="O33" s="1">
         <v>0.184</v>
       </c>
-      <c r="M33" s="1">
+      <c r="P33" s="1">
         <v>0.248</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
@@ -12862,20 +14188,67 @@
       <c r="H34" s="1">
         <v>40.270000000000003</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="M34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="1">
+      <c r="N34" s="1">
         <v>0.216</v>
       </c>
-      <c r="L34" s="1">
+      <c r="O34" s="1">
         <v>0.17299999999999999</v>
       </c>
-      <c r="M34" s="1">
+      <c r="P34" s="1">
         <v>0.216</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
+        <v>67.12</v>
+      </c>
+      <c r="D35" s="1">
+        <v>42.28</v>
+      </c>
+      <c r="E35" s="1">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="F35" s="1">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="G35" s="1">
+        <v>42.94</v>
+      </c>
+      <c r="H35" s="1">
+        <v>69.319999999999993</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="M35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.186</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
         <v>0</v>
@@ -12895,19 +14268,22 @@
       <c r="H37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="2" t="s">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -12931,21 +14307,24 @@
       <c r="H38" s="1">
         <v>3.77</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="M38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K38" s="1">
+      <c r="N38" s="1">
         <v>0.26200000000000001</v>
       </c>
-      <c r="L38" s="1">
+      <c r="O38" s="1">
         <v>0.254</v>
       </c>
-      <c r="M38" s="1">
+      <c r="P38" s="1">
         <v>0.314</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
       <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
@@ -12967,21 +14346,24 @@
       <c r="H39" s="1">
         <v>21.07</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="M39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="1">
+      <c r="N39" s="1">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L39" s="1">
+      <c r="O39" s="1">
         <v>0.28399999999999997</v>
       </c>
-      <c r="M39" s="1">
+      <c r="P39" s="1">
         <v>0.317</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
@@ -13003,26 +14385,68 @@
       <c r="H40" s="1">
         <v>54.6</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="M40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="1">
+      <c r="N40" s="1">
         <v>0.24399999999999999</v>
       </c>
-      <c r="L40" s="1">
+      <c r="O40" s="1">
         <v>0.26100000000000001</v>
       </c>
-      <c r="M40" s="1">
+      <c r="P40" s="1">
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O42" s="7" t="s">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1">
+        <v>72.11</v>
+      </c>
+      <c r="D41" s="1">
+        <v>67.55</v>
+      </c>
+      <c r="E41" s="1">
+        <v>90.1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>71.569999999999993</v>
+      </c>
+      <c r="G41" s="1">
+        <v>63.81</v>
+      </c>
+      <c r="H41" s="1">
+        <v>88.57</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="M41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="R42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -13030,8 +14454,11 @@
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
         <v>0</v>
@@ -13051,52 +14478,55 @@
       <c r="H43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="2" t="s">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="P43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="1">
+      <c r="R43" s="1">
         <v>0</v>
       </c>
-      <c r="P43" s="1">
+      <c r="S43" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="T43" s="1">
         <v>0.2</v>
       </c>
-      <c r="R43" s="1">
+      <c r="U43" s="1">
         <v>0.3</v>
       </c>
-      <c r="S43" s="1">
+      <c r="V43" s="1">
         <v>0.4</v>
       </c>
-      <c r="T43" s="1">
+      <c r="W43" s="1">
         <v>0.5</v>
       </c>
-      <c r="U43" s="1">
+      <c r="X43" s="1">
         <v>0.6</v>
       </c>
-      <c r="V43" s="1">
+      <c r="Y43" s="1">
         <v>0.7</v>
       </c>
-      <c r="W43" s="1">
+      <c r="Z43" s="1">
         <v>0.8</v>
       </c>
-      <c r="X43" s="1">
+      <c r="AA43" s="1">
         <v>0.9</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="AB43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -13120,21 +14550,24 @@
       <c r="H44" s="1">
         <v>2.46</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="M44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K44" s="1">
+      <c r="N44" s="1">
         <v>0.23799999999999999</v>
       </c>
-      <c r="L44" s="1">
+      <c r="O44" s="1">
         <v>0.14799999999999999</v>
       </c>
-      <c r="M44" s="1">
+      <c r="P44" s="1">
         <v>0.247</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
       <c r="B45" s="2" t="s">
         <v>11</v>
       </c>
@@ -13156,21 +14589,24 @@
       <c r="H45" s="1">
         <v>14.67</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="M45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="1">
+      <c r="N45" s="1">
         <v>0.214</v>
       </c>
-      <c r="L45" s="1">
+      <c r="O45" s="1">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M45" s="1">
+      <c r="P45" s="1">
         <v>0.23</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
       <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
@@ -13192,32 +14628,186 @@
       <c r="H46" s="1">
         <v>37.83</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="M46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="1">
+      <c r="N46" s="1">
         <v>0.192</v>
       </c>
-      <c r="L46" s="1">
+      <c r="O46" s="1">
         <v>0.17</v>
       </c>
-      <c r="M46" s="1">
+      <c r="P46" s="1">
         <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1">
+        <v>62.77</v>
+      </c>
+      <c r="D47" s="1">
+        <v>50.76</v>
+      </c>
+      <c r="E47" s="1">
+        <v>73.14</v>
+      </c>
+      <c r="F47" s="1">
+        <v>62.93</v>
+      </c>
+      <c r="G47" s="1">
+        <v>50.28</v>
+      </c>
+      <c r="H47" s="1">
+        <v>71.959999999999994</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M50" s="1"/>
+      <c r="N50" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="F53" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="1">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1">
+        <v>27.55</v>
+      </c>
+      <c r="F54" s="1">
+        <v>26.73</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44.91</v>
+      </c>
+      <c r="F55" s="1">
+        <v>44.09</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="O42:Y42"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A20:A22"/>
+  <mergeCells count="10">
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="R42:AB42"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A44:A47"/>
   </mergeCells>
-  <conditionalFormatting sqref="O43:T43 K2:M4 K8:M10 K14:M16 K20:M22 K26:M28 K32:M34 K38:M40 K44:M46">
+  <conditionalFormatting sqref="R43:W43 N2:P4 N8:P10 N14:P16 N20:P22 N26:P28 N32:P34 N38:P40 N44:P46">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43:W43 N44:P46 N38:P40 N32:P34 N26:P28 N20:P22 N14:P16 N8:P10 N2:P4">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:P17 R43:W43">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -13229,7 +14819,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43:T43 K44:M46 K38:M40 K32:M34 K26:M28 K20:M22 K14:M16 K8:M10 K2:M4">
+  <conditionalFormatting sqref="N51:N54 R43:W43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -13250,7 +14840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BF8126-54B6-4FA0-BA66-713989B713E4}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
